--- a/aro 4 calculator.xlsx
+++ b/aro 4 calculator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lydodg\OneDrive - Microsoft\aro 4 calculator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/lydodg_microsoft_com/Documents/aro 4 calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E5B040-FAA4-4D1B-842C-DC927E3CDD22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{59E5B040-FAA4-4D1B-842C-DC927E3CDD22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AD2C09F2-9D4C-48D8-BE9D-E517C8724DA9}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{9EB61050-8035-41A8-8F43-766506FE4D36}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" activeTab="1" xr2:uid="{9EB61050-8035-41A8-8F43-766506FE4D36}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTIONS" sheetId="3" r:id="rId1"/>
@@ -743,19 +743,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD3CB91-77E7-43CB-83C4-775870A77725}">
   <dimension ref="A2:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -763,27 +763,27 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -791,57 +791,57 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -860,20 +860,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D1FF76-4A77-49D0-8CE9-F18C5D44135E}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.59765625" customWidth="1"/>
-    <col min="2" max="13" width="10.9296875" customWidth="1"/>
+    <col min="1" max="1" width="42.6328125" customWidth="1"/>
+    <col min="2" max="13" width="10.90625" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="5.33203125" customWidth="1"/>
-    <col min="16" max="16" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.36328125" customWidth="1"/>
+    <col min="16" max="16" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -917,7 +917,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -958,7 +958,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -999,7 +999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>19999.079999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>5045.76</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>19999.079999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>5045.76</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>10091.52</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>686.88</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>15824.160000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>19999.079999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>35823.24</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="O28" s="6"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>13450.536000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>16999.218000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2513,6 +2513,18 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0EB4291-053E-418D-BC48-4BFC457A86B8}">
+          <x14:formula1>
+            <xm:f>SKU_CHARGES!$A$2:$A$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4 C4:M4 B8:M8 B12:M12 B16:M16</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2524,16 +2536,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -2553,7 +2565,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2575,7 +2587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2599,7 +2611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2623,7 +2635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2647,7 +2659,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2669,7 +2681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2693,7 +2705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2717,7 +2729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2741,7 +2753,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2763,7 +2775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2787,7 +2799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2811,7 +2823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>

--- a/aro 4 calculator.xlsx
+++ b/aro 4 calculator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/lydodg_microsoft_com/Documents/aro 4 calculator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lydodg\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{59E5B040-FAA4-4D1B-842C-DC927E3CDD22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AD2C09F2-9D4C-48D8-BE9D-E517C8724DA9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D1A6B6-B575-417A-994A-24B673D1A4FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" activeTab="1" xr2:uid="{9EB61050-8035-41A8-8F43-766506FE4D36}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9EB61050-8035-41A8-8F43-766506FE4D36}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTIONS" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="73">
   <si>
     <t>D4s_v3</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>Pricing in this workbook is based off the public Azure Calculator, and then reverse engineered through formulas to get to hourly breakdowns for different cluster options.</t>
+  </si>
+  <si>
+    <t>&lt;-- Azure Credit ROI</t>
   </si>
 </sst>
 </file>
@@ -391,11 +394,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -406,7 +410,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -419,12 +422,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="44" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -745,103 +750,103 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -858,22 +863,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D1FF76-4A77-49D0-8CE9-F18C5D44135E}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.6328125" customWidth="1"/>
-    <col min="2" max="13" width="10.90625" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="10.88671875" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="5.36328125" customWidth="1"/>
-    <col min="16" max="16" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -917,130 +922,130 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>730</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>730</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>730</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>730</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>730</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>730</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <v>730</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="9">
         <v>730</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="9">
         <v>730</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="9">
         <v>730</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="9">
         <v>730</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="9">
         <v>730</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>3</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>3</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>3</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>3</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>3</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>3</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>3</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <v>3</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="9">
         <v>3</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <v>3</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="9">
         <v>3</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1092,12 +1097,12 @@
         <f>M2*M3*VLOOKUP(M4,SKU_CHARGES!$A$2:$E$13,4,FALSE)</f>
         <v>1666.59</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <f>SUM(B5:M5)</f>
         <v>19999.079999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1149,96 +1154,96 @@
         <f>M2*M3*VLOOKUP(M4,SKU_CHARGES!$A$2:$E$13,5,FALSE)</f>
         <v>420.48</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="6">
         <f t="shared" ref="N6:N14" si="0">SUM(B6:M6)</f>
         <v>5045.76</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="10">
-        <v>0</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10">
-        <v>0</v>
-      </c>
-      <c r="K7" s="10">
-        <v>0</v>
-      </c>
-      <c r="L7" s="10">
-        <v>0</v>
-      </c>
-      <c r="M7" s="10">
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
         <v>0</v>
       </c>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="10" t="s">
         <v>1</v>
       </c>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1290,12 +1295,12 @@
         <f>M2*M7*VLOOKUP(M8,SKU_CHARGES!$A$2:$E$13,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1347,96 +1352,96 @@
         <f>M2*M7*VLOOKUP(M8,SKU_CHARGES!$A$2:$E$13,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="10">
-        <v>0</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0</v>
-      </c>
-      <c r="H11" s="10">
-        <v>0</v>
-      </c>
-      <c r="I11" s="10">
-        <v>0</v>
-      </c>
-      <c r="J11" s="10">
-        <v>0</v>
-      </c>
-      <c r="K11" s="10">
-        <v>0</v>
-      </c>
-      <c r="L11" s="10">
-        <v>0</v>
-      </c>
-      <c r="M11" s="10">
+      <c r="B11" s="9">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
         <v>0</v>
       </c>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="10" t="s">
         <v>2</v>
       </c>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1488,12 +1493,12 @@
         <f>M2*M11*VLOOKUP(M12,SKU_CHARGES!$A$2:$E$13,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1545,96 +1550,96 @@
         <f>M2*M11*VLOOKUP(M12,SKU_CHARGES!$A$2:$E$13,5,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>3</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>3</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>3</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <v>3</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <v>3</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>3</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <v>3</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="9">
         <v>3</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <v>3</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="9">
         <v>3</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="9">
         <v>3</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="9">
         <v>3</v>
       </c>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="M16" s="10" t="s">
         <v>1</v>
       </c>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1688,7 +1693,7 @@
       </c>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1740,12 +1745,12 @@
         <f t="shared" si="1"/>
         <v>1666.59</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="7">
         <f>SUM(B18:M18)</f>
         <v>19999.079999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1797,12 +1802,12 @@
         <f t="shared" si="2"/>
         <v>420.48</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="6">
         <f>SUM(B19:M19)</f>
         <v>5045.76</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1854,12 +1859,12 @@
         <f>M2*M15*VLOOKUP(M16,SKU_CHARGES!$A$2:$E$13,5,FALSE)</f>
         <v>840.96</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="6">
         <f>SUM(B20:M20)</f>
         <v>10091.52</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -1899,12 +1904,12 @@
       <c r="M21" s="2">
         <v>57.24</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="6">
         <f t="shared" ref="N21:N27" si="3">SUM(B21:M21)</f>
         <v>686.88</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1944,12 +1949,12 @@
       <c r="M22" s="1">
         <v>0</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1989,12 +1994,12 @@
       <c r="M23" s="1">
         <v>0</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -2034,12 +2039,12 @@
       <c r="M24" s="1">
         <v>0</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -2091,12 +2096,12 @@
         <f t="shared" si="4"/>
         <v>1318.68</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="6">
         <f>SUM(B25:M25)</f>
         <v>15824.160000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -2148,12 +2153,12 @@
         <f t="shared" si="5"/>
         <v>1666.59</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="7">
         <f t="shared" si="3"/>
         <v>19999.079999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -2205,140 +2210,146 @@
         <f t="shared" si="6"/>
         <v>2985.27</v>
       </c>
-      <c r="N27" s="9">
+      <c r="N27" s="8">
         <f t="shared" si="3"/>
         <v>35823.24</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="12">
-        <v>0</v>
-      </c>
-      <c r="C28" s="12">
-        <v>0</v>
-      </c>
-      <c r="D28" s="12">
-        <v>0</v>
-      </c>
-      <c r="E28" s="12">
-        <v>0</v>
-      </c>
-      <c r="F28" s="12">
-        <v>0</v>
-      </c>
-      <c r="G28" s="12">
-        <v>0</v>
-      </c>
-      <c r="H28" s="12">
-        <v>0</v>
-      </c>
-      <c r="I28" s="12">
-        <v>0</v>
-      </c>
-      <c r="J28" s="12">
-        <v>0</v>
-      </c>
-      <c r="K28" s="12">
-        <v>0</v>
-      </c>
-      <c r="L28" s="12">
-        <v>0</v>
-      </c>
-      <c r="M28" s="12">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
+      <c r="B28" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C28" s="11">
+        <v>0</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0</v>
+      </c>
+      <c r="E28" s="11">
+        <v>0</v>
+      </c>
+      <c r="F28" s="11">
+        <v>0</v>
+      </c>
+      <c r="G28" s="11">
+        <v>0</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0</v>
+      </c>
+      <c r="J28" s="11">
+        <v>0</v>
+      </c>
+      <c r="K28" s="11">
+        <v>0</v>
+      </c>
+      <c r="L28" s="11">
+        <v>0</v>
+      </c>
+      <c r="M28" s="11">
+        <v>0</v>
+      </c>
+      <c r="N28" s="6">
         <f>SUM(B28:M28)</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="6"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+        <v>1000</v>
+      </c>
+      <c r="O28" s="16">
+        <f>IFERROR(ABS(N25)/ABS(N28), "N/A")</f>
+        <v>15.824160000000001</v>
+      </c>
+      <c r="P28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="13">
-        <v>0</v>
-      </c>
-      <c r="C29" s="13">
-        <v>0</v>
-      </c>
-      <c r="D29" s="13">
-        <v>0</v>
-      </c>
-      <c r="E29" s="13">
-        <v>0</v>
-      </c>
-      <c r="F29" s="13">
-        <v>0</v>
-      </c>
-      <c r="G29" s="13">
-        <v>0</v>
-      </c>
-      <c r="H29" s="13">
-        <v>0</v>
-      </c>
-      <c r="I29" s="13">
-        <v>0</v>
-      </c>
-      <c r="J29" s="13">
-        <v>0</v>
-      </c>
-      <c r="K29" s="13">
-        <v>0</v>
-      </c>
-      <c r="L29" s="13">
-        <v>0</v>
-      </c>
-      <c r="M29" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B29" s="12">
+        <v>0</v>
+      </c>
+      <c r="C29" s="12">
+        <v>0</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0</v>
+      </c>
+      <c r="F29" s="12">
+        <v>0</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0</v>
+      </c>
+      <c r="H29" s="12">
+        <v>0</v>
+      </c>
+      <c r="I29" s="12">
+        <v>0</v>
+      </c>
+      <c r="J29" s="12">
+        <v>0</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0</v>
+      </c>
+      <c r="L29" s="12">
+        <v>0</v>
+      </c>
+      <c r="M29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="12">
         <v>0.15</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="12">
         <v>0.15</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="12">
         <v>0.15</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="12">
         <v>0.15</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="12">
         <v>0.15</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="12">
         <v>0.15</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="12">
         <v>0.15</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="12">
         <v>0.15</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30" s="12">
         <v>0.15</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K30" s="12">
         <v>0.15</v>
       </c>
-      <c r="L30" s="13">
+      <c r="L30" s="12">
         <v>0.15</v>
       </c>
-      <c r="M30" s="13">
+      <c r="M30" s="12">
         <v>0.15</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -2390,12 +2401,12 @@
         <f t="shared" si="7"/>
         <v>1120.8779999999999</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N31" s="6">
         <f>SUM(B31:M31)</f>
         <v>13450.536000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -2447,12 +2458,12 @@
         <f t="shared" si="8"/>
         <v>1416.6015</v>
       </c>
-      <c r="N32" s="8">
+      <c r="N32" s="7">
         <f>SUM(B32:M32)</f>
         <v>16999.218000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2504,7 +2515,7 @@
         <f t="shared" si="9"/>
         <v>2537.4794999999999</v>
       </c>
-      <c r="N33" s="9">
+      <c r="N33" s="8">
         <f>SUM(B33:M33)</f>
         <v>30449.754000000004</v>
       </c>
@@ -2536,16 +2547,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -2565,14 +2576,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <v>2222.12</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>560.64</v>
       </c>
       <c r="D2" s="4">
@@ -2587,7 +2598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2611,7 +2622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2635,7 +2646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2659,14 +2670,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>2665.96</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>735.84</v>
       </c>
       <c r="D6" s="4">
@@ -2681,7 +2692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2705,7 +2716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2729,7 +2740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2753,14 +2764,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>2000.2</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>493.48</v>
       </c>
       <c r="D10" s="4">
@@ -2775,7 +2786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2799,7 +2810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2823,7 +2834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>

--- a/aro 4 calculator.xlsx
+++ b/aro 4 calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lydodg\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D1A6B6-B575-417A-994A-24B673D1A4FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D34DA94-174B-4537-BF1C-79B84214699A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9EB61050-8035-41A8-8F43-766506FE4D36}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" activeTab="1" xr2:uid="{9EB61050-8035-41A8-8F43-766506FE4D36}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTIONS" sheetId="3" r:id="rId1"/>
@@ -136,9 +136,6 @@
     <t>SKU</t>
   </si>
   <si>
-    <t>Annualized</t>
-  </si>
-  <si>
     <t>Core Count</t>
   </si>
   <si>
@@ -158,36 +155,6 @@
   </si>
   <si>
     <t>Azure Credit</t>
-  </si>
-  <si>
-    <t>Cluster App Node Azure Charge</t>
-  </si>
-  <si>
-    <t>Cluster App Node OpenShift Charge</t>
-  </si>
-  <si>
-    <t>Cluster Master Node Azure Charge</t>
-  </si>
-  <si>
-    <t>Cluster Azure Storage Charge Estimate</t>
-  </si>
-  <si>
-    <t>Cluster Azure Load Balancer Charge Estimate</t>
-  </si>
-  <si>
-    <t>Cluster Azure Other 1 Charge Estimate</t>
-  </si>
-  <si>
-    <t>Cluster Azure Other 2 Charge Estimate</t>
-  </si>
-  <si>
-    <t>Gross Cluster Azure Charge</t>
-  </si>
-  <si>
-    <t>Gross Cluster OpenShift Charge</t>
-  </si>
-  <si>
-    <t>Gross Cluster Charge Total</t>
   </si>
   <si>
     <t>https://azure.microsoft.com/pricing/calculator/</t>
@@ -277,6 +244,39 @@
   </si>
   <si>
     <t>&lt;-- Azure Credit ROI</t>
+  </si>
+  <si>
+    <t>Gross Azure Cluster Charge</t>
+  </si>
+  <si>
+    <t>Gross OpenShift Cluster Licensing Charge</t>
+  </si>
+  <si>
+    <t>Cluster Azure Other 2 Charge</t>
+  </si>
+  <si>
+    <t>Cluster Azure Other 1 Charge</t>
+  </si>
+  <si>
+    <t>Cluster Azure Load Balancer Charge</t>
+  </si>
+  <si>
+    <t>Cluster Azure Storage (~40% of Compute)</t>
+  </si>
+  <si>
+    <t>Cluster Azure Master Node Compute</t>
+  </si>
+  <si>
+    <t>Cluster Azure App Node Compute</t>
+  </si>
+  <si>
+    <t>Cluster OpenShift App Node Licensing</t>
+  </si>
+  <si>
+    <t>Gross Total Cluster Charge</t>
+  </si>
+  <si>
+    <t>Annual</t>
   </si>
 </sst>
 </file>
@@ -757,98 +757,98 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -866,12 +866,12 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="13" width="10.88671875" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
     <col min="15" max="15" width="10.109375" customWidth="1"/>
@@ -919,7 +919,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -1641,7 +1641,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17">
         <f>B15*VLOOKUP(B16,SKU_CHARGES!$A$2:$F$13,6,FALSE)+B3*VLOOKUP(B4,SKU_CHARGES!$A$2:$F$13,6,FALSE)+B7*VLOOKUP(B8,SKU_CHARGES!$A$2:$F$13,6,FALSE)+B11*VLOOKUP(B12,SKU_CHARGES!$A$2:$F$13,6,FALSE)</f>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" ref="B18:M18" si="1">SUM(B13,B9,B5)</f>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" ref="B19:M19" si="2">SUM(B14,B10,B6,)</f>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="B20" s="2">
         <f>B2*B15*VLOOKUP(B16,SKU_CHARGES!$A$2:$E$13,5,FALSE)</f>
@@ -1866,52 +1866,64 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B21" s="2">
-        <v>57.24</v>
+        <f>40%*SUM(B19:B20)</f>
+        <v>504.57600000000002</v>
       </c>
       <c r="C21" s="2">
-        <v>57.24</v>
+        <f t="shared" ref="C21:M21" si="3">40%*SUM(C19:C20)</f>
+        <v>504.57600000000002</v>
       </c>
       <c r="D21" s="2">
-        <v>57.24</v>
+        <f t="shared" si="3"/>
+        <v>504.57600000000002</v>
       </c>
       <c r="E21" s="2">
-        <v>57.24</v>
+        <f t="shared" si="3"/>
+        <v>504.57600000000002</v>
       </c>
       <c r="F21" s="2">
-        <v>57.24</v>
+        <f t="shared" si="3"/>
+        <v>504.57600000000002</v>
       </c>
       <c r="G21" s="2">
-        <v>57.24</v>
+        <f t="shared" si="3"/>
+        <v>504.57600000000002</v>
       </c>
       <c r="H21" s="2">
-        <v>57.24</v>
+        <f t="shared" si="3"/>
+        <v>504.57600000000002</v>
       </c>
       <c r="I21" s="2">
-        <v>57.24</v>
+        <f t="shared" si="3"/>
+        <v>504.57600000000002</v>
       </c>
       <c r="J21" s="2">
-        <v>57.24</v>
+        <f t="shared" si="3"/>
+        <v>504.57600000000002</v>
       </c>
       <c r="K21" s="2">
-        <v>57.24</v>
+        <f t="shared" si="3"/>
+        <v>504.57600000000002</v>
       </c>
       <c r="L21" s="2">
-        <v>57.24</v>
+        <f t="shared" si="3"/>
+        <v>504.57600000000002</v>
       </c>
       <c r="M21" s="2">
-        <v>57.24</v>
+        <f t="shared" si="3"/>
+        <v>504.57600000000002</v>
       </c>
       <c r="N21" s="6">
-        <f t="shared" ref="N21:N27" si="3">SUM(B21:M21)</f>
-        <v>686.88</v>
+        <f t="shared" ref="N21:N27" si="4">SUM(B21:M21)</f>
+        <v>6054.9120000000003</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -1950,13 +1962,13 @@
         <v>0</v>
       </c>
       <c r="N22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -1995,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="N23" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -2040,187 +2052,187 @@
         <v>0</v>
       </c>
       <c r="N24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B25" s="1">
         <f>SUM(B19:B24)</f>
-        <v>1318.68</v>
+        <v>1766.0160000000001</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" ref="C25:M25" si="4">SUM(C19:C24)</f>
-        <v>1318.68</v>
+        <f t="shared" ref="C25:M25" si="5">SUM(C19:C24)</f>
+        <v>1766.0160000000001</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="4"/>
-        <v>1318.68</v>
+        <f t="shared" si="5"/>
+        <v>1766.0160000000001</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="4"/>
-        <v>1318.68</v>
+        <f t="shared" si="5"/>
+        <v>1766.0160000000001</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="4"/>
-        <v>1318.68</v>
+        <f t="shared" si="5"/>
+        <v>1766.0160000000001</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="4"/>
-        <v>1318.68</v>
+        <f t="shared" si="5"/>
+        <v>1766.0160000000001</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="4"/>
-        <v>1318.68</v>
+        <f t="shared" si="5"/>
+        <v>1766.0160000000001</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="4"/>
-        <v>1318.68</v>
+        <f t="shared" si="5"/>
+        <v>1766.0160000000001</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="4"/>
-        <v>1318.68</v>
+        <f t="shared" si="5"/>
+        <v>1766.0160000000001</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="4"/>
-        <v>1318.68</v>
+        <f t="shared" si="5"/>
+        <v>1766.0160000000001</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="4"/>
-        <v>1318.68</v>
+        <f t="shared" si="5"/>
+        <v>1766.0160000000001</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="4"/>
-        <v>1318.68</v>
+        <f t="shared" si="5"/>
+        <v>1766.0160000000001</v>
       </c>
       <c r="N25" s="6">
         <f>SUM(B25:M25)</f>
-        <v>15824.160000000002</v>
+        <v>21192.191999999999</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B26" s="2">
         <f>B18</f>
         <v>1666.59</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" ref="C26:M26" si="5">C18</f>
+        <f t="shared" ref="C26:M26" si="6">C18</f>
         <v>1666.59</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1666.59</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1666.59</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1666.59</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1666.59</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1666.59</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1666.59</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1666.59</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1666.59</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1666.59</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1666.59</v>
       </c>
       <c r="N26" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19999.079999999998</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B27" s="2">
         <f>SUM(B25:B26)</f>
-        <v>2985.27</v>
+        <v>3432.6059999999998</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" ref="C27:M27" si="6">SUM(C25:C26)</f>
-        <v>2985.27</v>
+        <f t="shared" ref="C27:M27" si="7">SUM(C25:C26)</f>
+        <v>3432.6059999999998</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="6"/>
-        <v>2985.27</v>
+        <f t="shared" si="7"/>
+        <v>3432.6059999999998</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="6"/>
-        <v>2985.27</v>
+        <f t="shared" si="7"/>
+        <v>3432.6059999999998</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="6"/>
-        <v>2985.27</v>
+        <f t="shared" si="7"/>
+        <v>3432.6059999999998</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="6"/>
-        <v>2985.27</v>
+        <f t="shared" si="7"/>
+        <v>3432.6059999999998</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="6"/>
-        <v>2985.27</v>
+        <f t="shared" si="7"/>
+        <v>3432.6059999999998</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="6"/>
-        <v>2985.27</v>
+        <f t="shared" si="7"/>
+        <v>3432.6059999999998</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="6"/>
-        <v>2985.27</v>
+        <f t="shared" si="7"/>
+        <v>3432.6059999999998</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="6"/>
-        <v>2985.27</v>
+        <f t="shared" si="7"/>
+        <v>3432.6059999999998</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" si="6"/>
-        <v>2985.27</v>
+        <f t="shared" si="7"/>
+        <v>3432.6059999999998</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="6"/>
-        <v>2985.27</v>
+        <f t="shared" si="7"/>
+        <v>3432.6059999999998</v>
       </c>
       <c r="N27" s="8">
-        <f t="shared" si="3"/>
-        <v>35823.24</v>
+        <f t="shared" si="4"/>
+        <v>41191.271999999997</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="11">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C28" s="11">
         <v>0</v>
@@ -2257,19 +2269,19 @@
       </c>
       <c r="N28" s="6">
         <f>SUM(B28:M28)</f>
-        <v>1000</v>
-      </c>
-      <c r="O28" s="16">
+        <v>0</v>
+      </c>
+      <c r="O28" s="16" t="str">
         <f>IFERROR(ABS(N25)/ABS(N28), "N/A")</f>
-        <v>15.824160000000001</v>
+        <v>N/A</v>
       </c>
       <c r="P28" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B29" s="12">
         <v>0</v>
@@ -2310,214 +2322,214 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="12">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="C30" s="12">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="D30" s="12">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E30" s="12">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F30" s="12">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="G30" s="12">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="H30" s="12">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="I30" s="12">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J30" s="12">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="K30" s="12">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="L30" s="12">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="M30" s="12">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2">
         <f>B25*(1-B29)*(1-B30)</f>
-        <v>1120.8779999999999</v>
+        <v>1766.0160000000001</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" ref="C31:M31" si="7">C25*(1-C29)*(1-C30)</f>
-        <v>1120.8779999999999</v>
+        <f t="shared" ref="C31:M31" si="8">C25*(1-C29)*(1-C30)</f>
+        <v>1766.0160000000001</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="7"/>
-        <v>1120.8779999999999</v>
+        <f t="shared" si="8"/>
+        <v>1766.0160000000001</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="7"/>
-        <v>1120.8779999999999</v>
+        <f t="shared" si="8"/>
+        <v>1766.0160000000001</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="7"/>
-        <v>1120.8779999999999</v>
+        <f t="shared" si="8"/>
+        <v>1766.0160000000001</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="7"/>
-        <v>1120.8779999999999</v>
+        <f t="shared" si="8"/>
+        <v>1766.0160000000001</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="7"/>
-        <v>1120.8779999999999</v>
+        <f t="shared" si="8"/>
+        <v>1766.0160000000001</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="7"/>
-        <v>1120.8779999999999</v>
+        <f t="shared" si="8"/>
+        <v>1766.0160000000001</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="7"/>
-        <v>1120.8779999999999</v>
+        <f t="shared" si="8"/>
+        <v>1766.0160000000001</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="7"/>
-        <v>1120.8779999999999</v>
+        <f t="shared" si="8"/>
+        <v>1766.0160000000001</v>
       </c>
       <c r="L31" s="2">
-        <f t="shared" si="7"/>
-        <v>1120.8779999999999</v>
+        <f t="shared" si="8"/>
+        <v>1766.0160000000001</v>
       </c>
       <c r="M31" s="2">
-        <f t="shared" si="7"/>
-        <v>1120.8779999999999</v>
+        <f t="shared" si="8"/>
+        <v>1766.0160000000001</v>
       </c>
       <c r="N31" s="6">
         <f>SUM(B31:M31)</f>
-        <v>13450.536000000002</v>
+        <v>21192.191999999999</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2">
         <f>B18*(1-B29)*(1-B30)</f>
-        <v>1416.6015</v>
+        <v>1666.59</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" ref="C32:M32" si="8">C18*(1-C29)*(1-C30)</f>
-        <v>1416.6015</v>
+        <f t="shared" ref="C32:M32" si="9">C18*(1-C29)*(1-C30)</f>
+        <v>1666.59</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="8"/>
-        <v>1416.6015</v>
+        <f t="shared" si="9"/>
+        <v>1666.59</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="8"/>
-        <v>1416.6015</v>
+        <f t="shared" si="9"/>
+        <v>1666.59</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="8"/>
-        <v>1416.6015</v>
+        <f t="shared" si="9"/>
+        <v>1666.59</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="8"/>
-        <v>1416.6015</v>
+        <f t="shared" si="9"/>
+        <v>1666.59</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="8"/>
-        <v>1416.6015</v>
+        <f t="shared" si="9"/>
+        <v>1666.59</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="8"/>
-        <v>1416.6015</v>
+        <f t="shared" si="9"/>
+        <v>1666.59</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="8"/>
-        <v>1416.6015</v>
+        <f t="shared" si="9"/>
+        <v>1666.59</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="8"/>
-        <v>1416.6015</v>
+        <f t="shared" si="9"/>
+        <v>1666.59</v>
       </c>
       <c r="L32" s="2">
-        <f t="shared" si="8"/>
-        <v>1416.6015</v>
+        <f t="shared" si="9"/>
+        <v>1666.59</v>
       </c>
       <c r="M32" s="2">
-        <f t="shared" si="8"/>
-        <v>1416.6015</v>
+        <f t="shared" si="9"/>
+        <v>1666.59</v>
       </c>
       <c r="N32" s="7">
         <f>SUM(B32:M32)</f>
-        <v>16999.218000000004</v>
+        <v>19999.079999999998</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2">
         <f>SUM(B31:B32)</f>
-        <v>2537.4794999999999</v>
+        <v>3432.6059999999998</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" ref="C33:M33" si="9">SUM(C31:C32)</f>
-        <v>2537.4794999999999</v>
+        <f t="shared" ref="C33:M33" si="10">SUM(C31:C32)</f>
+        <v>3432.6059999999998</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="9"/>
-        <v>2537.4794999999999</v>
+        <f t="shared" si="10"/>
+        <v>3432.6059999999998</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="9"/>
-        <v>2537.4794999999999</v>
+        <f t="shared" si="10"/>
+        <v>3432.6059999999998</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="9"/>
-        <v>2537.4794999999999</v>
+        <f t="shared" si="10"/>
+        <v>3432.6059999999998</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="9"/>
-        <v>2537.4794999999999</v>
+        <f t="shared" si="10"/>
+        <v>3432.6059999999998</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="9"/>
-        <v>2537.4794999999999</v>
+        <f t="shared" si="10"/>
+        <v>3432.6059999999998</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="9"/>
-        <v>2537.4794999999999</v>
+        <f t="shared" si="10"/>
+        <v>3432.6059999999998</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="9"/>
-        <v>2537.4794999999999</v>
+        <f t="shared" si="10"/>
+        <v>3432.6059999999998</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="9"/>
-        <v>2537.4794999999999</v>
+        <f t="shared" si="10"/>
+        <v>3432.6059999999998</v>
       </c>
       <c r="L33" s="2">
-        <f t="shared" si="9"/>
-        <v>2537.4794999999999</v>
+        <f t="shared" si="10"/>
+        <v>3432.6059999999998</v>
       </c>
       <c r="M33" s="2">
-        <f t="shared" si="9"/>
-        <v>2537.4794999999999</v>
+        <f t="shared" si="10"/>
+        <v>3432.6059999999998</v>
       </c>
       <c r="N33" s="8">
         <f>SUM(B33:M33)</f>
-        <v>30449.754000000004</v>
+        <v>41191.271999999997</v>
       </c>
     </row>
   </sheetData>
@@ -2531,7 +2543,7 @@
           <x14:formula1>
             <xm:f>SKU_CHARGES!$A$2:$A$13</xm:f>
           </x14:formula1>
-          <xm:sqref>B4 C4:M4 B8:M8 B12:M12 B16:M16</xm:sqref>
+          <xm:sqref>B4:M4 B8:M8 B12:M12 B16:M16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2573,7 +2585,7 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
